--- a/data.xlsx
+++ b/data.xlsx
@@ -746,12 +746,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>milkman</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Vandrive</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -2666,15 +2666,19 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N9" s="23">
-        <v>3</v>
-      </c>
-      <c r="O9" s="23">
-        <v>4</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -3214,15 +3218,19 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N11" s="23">
-        <v>3</v>
-      </c>
-      <c r="O11" s="23">
-        <v>4</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -3498,7 +3506,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -3779,7 +3787,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Teaseller</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -4050,7 +4058,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -4878,7 +4886,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Fisherma</t>
+          <t>Fisherman</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -5142,11 +5150,15 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N18" s="23">
-        <v>3</v>
-      </c>
-      <c r="O18" s="23">
-        <v>4</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -5426,7 +5438,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -6254,7 +6266,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -7082,7 +7094,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unemploy</t>
+          <t>Jobless</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -7358,12 +7370,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -7634,7 +7646,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -8186,12 +8198,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -8738,7 +8750,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Fisherma</t>
+          <t>Fisherman</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -9566,7 +9578,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Fisherma</t>
+          <t>Fisherman</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -9830,11 +9842,15 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N35" s="23">
-        <v>3</v>
-      </c>
-      <c r="O35" s="23">
-        <v>4</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -10114,7 +10130,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -10942,7 +10958,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -12046,12 +12062,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -12322,7 +12338,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -13150,7 +13166,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -13431,7 +13447,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -13690,11 +13706,15 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N49" s="23">
-        <v>3</v>
-      </c>
-      <c r="O49" s="23">
-        <v>4</v>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -13974,7 +13994,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -14238,11 +14258,15 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N51" s="23">
-        <v>3</v>
-      </c>
-      <c r="O51" s="23">
-        <v>4</v>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -16718,11 +16742,15 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N60" s="23">
-        <v>3</v>
-      </c>
-      <c r="O60" s="23">
-        <v>4</v>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -17830,7 +17858,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -18658,7 +18686,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -19762,7 +19790,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -20314,7 +20342,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -21418,7 +21446,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -21682,11 +21710,15 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N78" s="23">
-        <v>3</v>
-      </c>
-      <c r="O78" s="23">
-        <v>4</v>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -22242,7 +22274,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -23346,7 +23378,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -24162,15 +24194,19 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N87" s="23">
-        <v>3</v>
-      </c>
-      <c r="O87" s="23">
-        <v>4</v>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -24710,11 +24746,15 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N89" s="23">
-        <v>3</v>
-      </c>
-      <c r="O89" s="23">
-        <v>4</v>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -25270,12 +25310,12 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -25546,12 +25586,12 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -25822,12 +25862,12 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -26103,7 +26143,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>milkman</t>
+          <t>Milkman</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -26374,7 +26414,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -26638,15 +26678,19 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N96" s="23">
-        <v>3</v>
-      </c>
-      <c r="O96" s="23">
-        <v>4</v>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -26922,7 +26966,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Vandrive</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -27198,7 +27242,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -27474,7 +27518,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -28026,7 +28070,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -28290,20 +28334,24 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N102" s="23">
-        <v>3</v>
-      </c>
-      <c r="O102" s="23">
-        <v>4</v>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -28562,20 +28610,24 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N103" s="23">
-        <v>3</v>
-      </c>
-      <c r="O103" s="23">
-        <v>4</v>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -28834,20 +28886,24 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N104" s="23">
-        <v>3</v>
-      </c>
-      <c r="O104" s="23">
-        <v>4</v>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>Doctor</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>Nurse</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -29118,12 +29174,12 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>housiwife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -29394,12 +29450,12 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>Farmer</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -29670,12 +29726,12 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -29946,12 +30002,12 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>Farmer</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -30222,12 +30278,12 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>Labour</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -30498,12 +30554,12 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>Farmer</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -30774,12 +30830,12 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>Farmer</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -31326,7 +31382,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
@@ -32142,11 +32198,15 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N116" s="23">
-        <v>3</v>
-      </c>
-      <c r="O116" s="23">
-        <v>4</v>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -32426,7 +32486,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Farming</t>
+          <t>Farmer</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -32690,11 +32750,15 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N118" s="23">
-        <v>3</v>
-      </c>
-      <c r="O118" s="23">
-        <v>4</v>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -32703,7 +32767,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -32962,20 +33026,24 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N119" s="23">
-        <v>3</v>
-      </c>
-      <c r="O119" s="23">
-        <v>4</v>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>business</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -33290,8 +33358,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z120" s="23">
-        <v>22</v>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
@@ -33508,20 +33578,24 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N121" s="23">
-        <v>3</v>
-      </c>
-      <c r="O121" s="23">
-        <v>4</v>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>Job</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -33792,12 +33866,12 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Day labo</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -34068,7 +34142,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>Day labo</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -34332,11 +34406,15 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N124" s="23">
-        <v>3</v>
-      </c>
-      <c r="O124" s="23">
-        <v>4</v>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
@@ -34399,8 +34477,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="AC124" s="23">
-        <v>22</v>
+      <c r="AC124" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
       </c>
       <c r="AD124" t="inlineStr">
         <is>
@@ -34442,8 +34522,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AL124" s="23">
-        <v>22</v>
+      <c r="AL124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="AM124" t="inlineStr">
         <is>
@@ -34612,12 +34694,12 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>Day Lobo</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -34641,8 +34723,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="W125" s="23">
-        <v>11</v>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="X125" t="inlineStr">
         <is>
@@ -34874,11 +34958,15 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N126" s="23">
-        <v>3</v>
-      </c>
-      <c r="O126" s="23">
-        <v>4</v>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
@@ -34887,7 +34975,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -34921,8 +35009,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Y126" s="23">
-        <v>11</v>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
@@ -35156,7 +35246,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Labor</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -35230,8 +35320,10 @@
           <t>Neutral</t>
         </is>
       </c>
-      <c r="AF127" s="23">
-        <v>11</v>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="AG127" t="inlineStr">
         <is>
@@ -35430,12 +35522,12 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>Framer</t>
+          <t>Farmer</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R128" s="23">
@@ -35704,12 +35796,12 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Day labo</t>
+          <t>Worker</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R129" s="23">
@@ -35736,8 +35828,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="X129" s="23">
-        <v>22</v>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="Y129" t="inlineStr">
         <is>
@@ -35976,12 +36070,12 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>Farmer</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>Housewife</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -36240,11 +36334,15 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N131" s="23">
-        <v>3</v>
-      </c>
-      <c r="O131" s="23">
-        <v>4</v>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -36512,11 +36610,15 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N132" s="23">
-        <v>3</v>
-      </c>
-      <c r="O132" s="23">
-        <v>4</v>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P132" t="inlineStr">
         <is>
@@ -36784,11 +36886,15 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N133" s="23">
-        <v>3</v>
-      </c>
-      <c r="O133" s="23">
-        <v>4</v>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
@@ -37056,11 +37162,15 @@
           <t>Rural</t>
         </is>
       </c>
-      <c r="N134" s="23">
-        <v>3</v>
-      </c>
-      <c r="O134" s="23">
-        <v>4</v>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -37328,11 +37438,15 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N135" s="23">
-        <v>3</v>
-      </c>
-      <c r="O135" s="23">
-        <v>4</v>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -37600,11 +37714,15 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="N136" s="23">
-        <v>3</v>
-      </c>
-      <c r="O136" s="23">
-        <v>4</v>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
       </c>
       <c r="P136" t="inlineStr">
         <is>
@@ -38426,7 +38544,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -39530,7 +39648,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -39806,7 +39924,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -40082,7 +40200,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -41847,8 +41965,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="AK151" s="1" t="e">
-        <v>#NULL!</v>
+      <c r="AK151" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="AL151" t="inlineStr">
         <is>
@@ -42288,7 +42408,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -42311,8 +42431,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S153" s="23">
-        <v>22</v>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Supportive</t>
+        </is>
       </c>
       <c r="T153" s="23">
         <v>6</v>
@@ -42335,8 +42457,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Y153" s="23">
-        <v>11</v>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
@@ -42403,8 +42527,10 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AM153" s="23">
-        <v>11</v>
+      <c r="AM153" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="AN153" t="inlineStr">
         <is>
@@ -42834,7 +42960,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -43133,8 +43259,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="S156" s="23">
-        <v>22</v>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>Supportive</t>
+        </is>
       </c>
       <c r="T156" s="23">
         <v>2</v>
@@ -43384,7 +43512,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -43407,8 +43535,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="S157" s="23">
-        <v>22</v>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
       </c>
       <c r="T157" s="23">
         <v>7</v>
@@ -43934,7 +44064,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -44210,7 +44340,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -44762,7 +44892,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -48626,7 +48756,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -48902,7 +49032,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -49178,7 +49308,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -49454,7 +49584,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -49730,7 +49860,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Applicable</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -703,11 +703,15 @@
       <c r="F2" s="23">
         <v>150000</v>
       </c>
-      <c r="G2" s="23">
-        <v>75</v>
-      </c>
-      <c r="H2" s="23">
-        <v>0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Dead</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -977,13 +981,17 @@
         <v>10</v>
       </c>
       <c r="F3" s="23">
-        <v>40000</v>
-      </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0</v>
+        <v>115000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Dead</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dead</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1255,11 +1263,15 @@
       <c r="F4" s="23">
         <v>120000</v>
       </c>
-      <c r="G4" s="23">
-        <v>70</v>
-      </c>
-      <c r="H4" s="23">
-        <v>50</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1531,11 +1543,15 @@
       <c r="F5" s="23">
         <v>150000</v>
       </c>
-      <c r="G5" s="23">
-        <v>50</v>
-      </c>
-      <c r="H5" s="23">
-        <v>35</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1807,11 +1823,15 @@
       <c r="F6" s="23">
         <v>90000</v>
       </c>
-      <c r="G6" s="23">
-        <v>70</v>
-      </c>
-      <c r="H6" s="23">
-        <v>50</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2083,11 +2103,15 @@
       <c r="F7" s="23">
         <v>100000</v>
       </c>
-      <c r="G7" s="23">
-        <v>65</v>
-      </c>
-      <c r="H7" s="23">
-        <v>50</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2359,11 +2383,15 @@
       <c r="F8" s="23">
         <v>150000</v>
       </c>
-      <c r="G8" s="23">
-        <v>53</v>
-      </c>
-      <c r="H8" s="23">
-        <v>40</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2635,11 +2663,15 @@
       <c r="F9" s="23">
         <v>300000</v>
       </c>
-      <c r="G9" s="23">
-        <v>50</v>
-      </c>
-      <c r="H9" s="23">
-        <v>35</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2911,11 +2943,15 @@
       <c r="F10" s="23">
         <v>120000</v>
       </c>
-      <c r="G10" s="23">
-        <v>45</v>
-      </c>
-      <c r="H10" s="23">
-        <v>35</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -3185,13 +3221,17 @@
         <v>5</v>
       </c>
       <c r="F11" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G11" s="23">
-        <v>42</v>
-      </c>
-      <c r="H11" s="23">
-        <v>33</v>
+        <v>115000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3463,11 +3503,15 @@
       <c r="F12" s="23">
         <v>90000</v>
       </c>
-      <c r="G12" s="23">
-        <v>40</v>
-      </c>
-      <c r="H12" s="23">
-        <v>30</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -3739,11 +3783,15 @@
       <c r="F13" s="23">
         <v>240000</v>
       </c>
-      <c r="G13" s="23">
-        <v>70</v>
-      </c>
-      <c r="H13" s="23">
-        <v>55</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -4013,13 +4061,17 @@
         <v>6</v>
       </c>
       <c r="F14" s="23">
-        <v>60000</v>
-      </c>
-      <c r="G14" s="23">
-        <v>56</v>
-      </c>
-      <c r="H14" s="23">
-        <v>45</v>
+        <v>95000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -4289,13 +4341,17 @@
         <v>5</v>
       </c>
       <c r="F15" s="23">
-        <v>65000</v>
-      </c>
-      <c r="G15" s="23">
-        <v>64</v>
-      </c>
-      <c r="H15" s="23">
-        <v>56</v>
+        <v>100000</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -4565,13 +4621,17 @@
         <v>6</v>
       </c>
       <c r="F16" s="23">
-        <v>72000</v>
-      </c>
-      <c r="G16" s="23">
-        <v>46</v>
-      </c>
-      <c r="H16" s="23">
-        <v>30</v>
+        <v>107000</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -4841,13 +4901,17 @@
         <v>5</v>
       </c>
       <c r="F17" s="23">
-        <v>85000</v>
-      </c>
-      <c r="G17" s="23">
-        <v>50</v>
-      </c>
-      <c r="H17" s="23">
-        <v>45</v>
+        <v>115000</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -5117,13 +5181,17 @@
         <v>4</v>
       </c>
       <c r="F18" s="23">
-        <v>100000</v>
-      </c>
-      <c r="G18" s="23">
-        <v>40</v>
-      </c>
-      <c r="H18" s="23">
-        <v>35</v>
+        <v>180000</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -5393,13 +5461,17 @@
         <v>7</v>
       </c>
       <c r="F19" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G19" s="23">
-        <v>50</v>
-      </c>
-      <c r="H19" s="23">
-        <v>45</v>
+        <v>115000</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -5671,11 +5743,15 @@
       <c r="F20" s="23">
         <v>90000</v>
       </c>
-      <c r="G20" s="23">
-        <v>48</v>
-      </c>
-      <c r="H20" s="23">
-        <v>40</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -5947,11 +6023,15 @@
       <c r="F21" s="23">
         <v>150000</v>
       </c>
-      <c r="G21" s="23">
-        <v>52</v>
-      </c>
-      <c r="H21" s="23">
-        <v>57</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -6221,13 +6301,17 @@
         <v>4</v>
       </c>
       <c r="F22" s="23">
-        <v>75000</v>
-      </c>
-      <c r="G22" s="23">
-        <v>40</v>
-      </c>
-      <c r="H22" s="23">
-        <v>30</v>
+        <v>110000</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -6497,13 +6581,17 @@
         <v>7</v>
       </c>
       <c r="F23" s="23">
-        <v>65000</v>
-      </c>
-      <c r="G23" s="23">
-        <v>54</v>
-      </c>
-      <c r="H23" s="23">
-        <v>47</v>
+        <v>100000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -6773,13 +6861,17 @@
         <v>5</v>
       </c>
       <c r="F24" s="23">
-        <v>65000</v>
-      </c>
-      <c r="G24" s="23">
-        <v>44</v>
-      </c>
-      <c r="H24" s="23">
-        <v>40</v>
+        <v>100000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -7051,11 +7143,15 @@
       <c r="F25" s="23">
         <v>90000</v>
       </c>
-      <c r="G25" s="23">
-        <v>57</v>
-      </c>
-      <c r="H25" s="23">
-        <v>45</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -7325,13 +7421,17 @@
         <v>5</v>
       </c>
       <c r="F26" s="23">
-        <v>40000</v>
-      </c>
-      <c r="G26" s="23">
-        <v>55</v>
-      </c>
-      <c r="H26" s="23">
-        <v>47</v>
+        <v>80000</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -7601,13 +7701,17 @@
         <v>6</v>
       </c>
       <c r="F27" s="23">
-        <v>50000</v>
-      </c>
-      <c r="G27" s="23">
-        <v>53</v>
-      </c>
-      <c r="H27" s="23">
-        <v>48</v>
+        <v>90000</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -7877,13 +7981,17 @@
         <v>7</v>
       </c>
       <c r="F28" s="23">
-        <v>60000</v>
-      </c>
-      <c r="G28" s="23">
-        <v>60</v>
-      </c>
-      <c r="H28" s="23">
-        <v>54</v>
+        <v>95000</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -8153,13 +8261,17 @@
         <v>5</v>
       </c>
       <c r="F29" s="23">
-        <v>30000</v>
-      </c>
-      <c r="G29" s="23">
-        <v>42</v>
-      </c>
-      <c r="H29" s="23">
-        <v>30</v>
+        <v>80000</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -8431,11 +8543,15 @@
       <c r="F30" s="23">
         <v>200000</v>
       </c>
-      <c r="G30" s="23">
-        <v>70</v>
-      </c>
-      <c r="H30" s="23">
-        <v>58</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -8705,13 +8821,17 @@
         <v>5</v>
       </c>
       <c r="F31" s="23">
-        <v>60000</v>
-      </c>
-      <c r="G31" s="23">
-        <v>56</v>
-      </c>
-      <c r="H31" s="23">
-        <v>45</v>
+        <v>95000</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -8981,13 +9101,17 @@
         <v>5</v>
       </c>
       <c r="F32" s="23">
-        <v>20000</v>
-      </c>
-      <c r="G32" s="23">
-        <v>60</v>
-      </c>
-      <c r="H32" s="23">
-        <v>56</v>
+        <v>80000</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -9257,13 +9381,17 @@
         <v>7</v>
       </c>
       <c r="F33" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G33" s="23">
-        <v>0</v>
-      </c>
-      <c r="H33" s="23">
-        <v>35</v>
+        <v>115000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dead</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -9533,13 +9661,17 @@
         <v>5</v>
       </c>
       <c r="F34" s="23">
-        <v>70000</v>
-      </c>
-      <c r="G34" s="23">
-        <v>50</v>
-      </c>
-      <c r="H34" s="23">
-        <v>45</v>
+        <v>105000</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -9809,13 +9941,17 @@
         <v>4</v>
       </c>
       <c r="F35" s="23">
-        <v>50000</v>
-      </c>
-      <c r="G35" s="23">
-        <v>40</v>
-      </c>
-      <c r="H35" s="23">
-        <v>35</v>
+        <v>90000</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -10087,11 +10223,15 @@
       <c r="F36" s="23">
         <v>90000</v>
       </c>
-      <c r="G36" s="23">
-        <v>50</v>
-      </c>
-      <c r="H36" s="23">
-        <v>45</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -10361,13 +10501,17 @@
         <v>5</v>
       </c>
       <c r="F37" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G37" s="23">
-        <v>48</v>
-      </c>
-      <c r="H37" s="23">
-        <v>40</v>
+        <v>115000</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -10637,13 +10781,17 @@
         <v>7</v>
       </c>
       <c r="F38" s="23">
-        <v>70000</v>
-      </c>
-      <c r="G38" s="23">
-        <v>52</v>
-      </c>
-      <c r="H38" s="23">
-        <v>57</v>
+        <v>105000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -10913,13 +11061,17 @@
         <v>4</v>
       </c>
       <c r="F39" s="23">
-        <v>70000</v>
-      </c>
-      <c r="G39" s="23">
-        <v>40</v>
-      </c>
-      <c r="H39" s="23">
-        <v>30</v>
+        <v>105000</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -11189,13 +11341,17 @@
         <v>7</v>
       </c>
       <c r="F40" s="23">
-        <v>65000</v>
-      </c>
-      <c r="G40" s="23">
-        <v>54</v>
-      </c>
-      <c r="H40" s="23">
-        <v>47</v>
+        <v>100000</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -11467,11 +11623,15 @@
       <c r="F41" s="23">
         <v>100000</v>
       </c>
-      <c r="G41" s="23">
-        <v>44</v>
-      </c>
-      <c r="H41" s="23">
-        <v>40</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -11741,13 +11901,17 @@
         <v>5</v>
       </c>
       <c r="F42" s="23">
-        <v>85000</v>
-      </c>
-      <c r="G42" s="23">
-        <v>57</v>
-      </c>
-      <c r="H42" s="23">
-        <v>45</v>
+        <v>115000</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -12017,13 +12181,17 @@
         <v>5</v>
       </c>
       <c r="F43" s="23">
-        <v>40000</v>
-      </c>
-      <c r="G43" s="23">
-        <v>55</v>
-      </c>
-      <c r="H43" s="23">
-        <v>47</v>
+        <v>80000</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -12293,13 +12461,17 @@
         <v>6</v>
       </c>
       <c r="F44" s="23">
-        <v>50000</v>
-      </c>
-      <c r="G44" s="23">
-        <v>53</v>
-      </c>
-      <c r="H44" s="23">
-        <v>48</v>
+        <v>90000</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -12571,11 +12743,15 @@
       <c r="F45" s="23">
         <v>720000</v>
       </c>
-      <c r="G45" s="23">
-        <v>60</v>
-      </c>
-      <c r="H45" s="23">
-        <v>54</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -12847,11 +13023,15 @@
       <c r="F46" s="23">
         <v>150000</v>
       </c>
-      <c r="G46" s="23">
-        <v>70</v>
-      </c>
-      <c r="H46" s="23">
-        <v>58</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -13123,11 +13303,15 @@
       <c r="F47" s="23">
         <v>425000</v>
       </c>
-      <c r="G47" s="23">
-        <v>56</v>
-      </c>
-      <c r="H47" s="23">
-        <v>50</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -13399,11 +13583,15 @@
       <c r="F48" s="23">
         <v>100000</v>
       </c>
-      <c r="G48" s="23">
-        <v>64</v>
-      </c>
-      <c r="H48" s="23">
-        <v>56</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -13675,11 +13863,15 @@
       <c r="F49" s="23">
         <v>185000</v>
       </c>
-      <c r="G49" s="23">
-        <v>46</v>
-      </c>
-      <c r="H49" s="23">
-        <v>40</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -13951,11 +14143,15 @@
       <c r="F50" s="23">
         <v>300000</v>
       </c>
-      <c r="G50" s="23">
-        <v>50</v>
-      </c>
-      <c r="H50" s="23">
-        <v>44</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -14225,13 +14421,17 @@
         <v>6</v>
       </c>
       <c r="F51" s="23">
-        <v>100000</v>
-      </c>
-      <c r="G51" s="23">
-        <v>40</v>
-      </c>
-      <c r="H51" s="23">
-        <v>36</v>
+        <v>190000</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -14503,11 +14703,15 @@
       <c r="F52" s="23">
         <v>144000</v>
       </c>
-      <c r="G52" s="23">
-        <v>53</v>
-      </c>
-      <c r="H52" s="23">
-        <v>43</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -14779,11 +14983,15 @@
       <c r="F53" s="23">
         <v>144000</v>
       </c>
-      <c r="G53" s="23">
-        <v>42</v>
-      </c>
-      <c r="H53" s="23">
-        <v>39</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -15055,11 +15263,15 @@
       <c r="F54" s="23">
         <v>96000</v>
       </c>
-      <c r="G54" s="23">
-        <v>50</v>
-      </c>
-      <c r="H54" s="23">
-        <v>40</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -15329,13 +15541,17 @@
         <v>4</v>
       </c>
       <c r="F55" s="23">
-        <v>72000</v>
-      </c>
-      <c r="G55" s="23">
-        <v>35</v>
-      </c>
-      <c r="H55" s="23">
-        <v>29</v>
+        <v>107000</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -15607,11 +15823,15 @@
       <c r="F56" s="23">
         <v>240000</v>
       </c>
-      <c r="G56" s="23">
-        <v>56</v>
-      </c>
-      <c r="H56" s="23">
-        <v>38</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -15883,11 +16103,15 @@
       <c r="F57" s="23">
         <v>168000</v>
       </c>
-      <c r="G57" s="23">
-        <v>51</v>
-      </c>
-      <c r="H57" s="23">
-        <v>40</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -16159,11 +16383,15 @@
       <c r="F58" s="23">
         <v>144000</v>
       </c>
-      <c r="G58" s="23">
-        <v>45</v>
-      </c>
-      <c r="H58" s="23">
-        <v>41</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -16435,11 +16663,15 @@
       <c r="F59" s="23">
         <v>120000</v>
       </c>
-      <c r="G59" s="23">
-        <v>70</v>
-      </c>
-      <c r="H59" s="23">
-        <v>60</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -16711,11 +16943,15 @@
       <c r="F60" s="23">
         <v>480000</v>
       </c>
-      <c r="G60" s="23">
-        <v>42</v>
-      </c>
-      <c r="H60" s="23">
-        <v>37</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -16987,11 +17223,15 @@
       <c r="F61" s="23">
         <v>120000</v>
       </c>
-      <c r="G61" s="23">
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
-        <v>62</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Dead</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -17263,11 +17503,15 @@
       <c r="F62" s="23">
         <v>300000</v>
       </c>
-      <c r="G62" s="23">
-        <v>50</v>
-      </c>
-      <c r="H62" s="23">
-        <v>45</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -17542,8 +17786,10 @@
       <c r="G63" s="1" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="H63" s="23">
-        <v>55</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -17815,11 +18061,15 @@
       <c r="F64" s="23">
         <v>180000</v>
       </c>
-      <c r="G64" s="23">
-        <v>60</v>
-      </c>
-      <c r="H64" s="23">
-        <v>45</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -18091,11 +18341,15 @@
       <c r="F65" s="23">
         <v>360000</v>
       </c>
-      <c r="G65" s="23">
-        <v>46</v>
-      </c>
-      <c r="H65" s="23">
-        <v>37</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -18367,11 +18621,15 @@
       <c r="F66" s="23">
         <v>180000</v>
       </c>
-      <c r="G66" s="23">
-        <v>50</v>
-      </c>
-      <c r="H66" s="23">
-        <v>45</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -18646,8 +18904,10 @@
       <c r="G67" s="1" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="H67" s="23">
-        <v>37</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -18917,13 +19177,17 @@
         <v>4</v>
       </c>
       <c r="F68" s="23">
-        <v>84000</v>
-      </c>
-      <c r="G68" s="23">
-        <v>55</v>
-      </c>
-      <c r="H68" s="23">
-        <v>45</v>
+        <v>115000</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -19195,11 +19459,15 @@
       <c r="F69" s="23">
         <v>420000</v>
       </c>
-      <c r="G69" s="23">
-        <v>46</v>
-      </c>
-      <c r="H69" s="23">
-        <v>39</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -19471,11 +19739,15 @@
       <c r="F70" s="23">
         <v>360000</v>
       </c>
-      <c r="G70" s="23">
-        <v>50</v>
-      </c>
-      <c r="H70" s="23">
-        <v>35</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -19747,11 +20019,15 @@
       <c r="F71" s="23">
         <v>120000</v>
       </c>
-      <c r="G71" s="23">
-        <v>42</v>
-      </c>
-      <c r="H71" s="23">
-        <v>35</v>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -20023,11 +20299,15 @@
       <c r="F72" s="23">
         <v>150000</v>
       </c>
-      <c r="G72" s="23">
-        <v>46</v>
-      </c>
-      <c r="H72" s="23">
-        <v>30</v>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -20299,11 +20579,15 @@
       <c r="F73" s="23">
         <v>180000</v>
       </c>
-      <c r="G73" s="23">
-        <v>50</v>
-      </c>
-      <c r="H73" s="23">
-        <v>45</v>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -20575,11 +20859,15 @@
       <c r="F74" s="23">
         <v>300000</v>
       </c>
-      <c r="G74" s="23">
-        <v>40</v>
-      </c>
-      <c r="H74" s="23">
-        <v>35</v>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -20851,11 +21139,15 @@
       <c r="F75" s="23">
         <v>300000</v>
       </c>
-      <c r="G75" s="23">
-        <v>50</v>
-      </c>
-      <c r="H75" s="23">
-        <v>45</v>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -21127,11 +21419,15 @@
       <c r="F76" s="23">
         <v>150000</v>
       </c>
-      <c r="G76" s="23">
-        <v>48</v>
-      </c>
-      <c r="H76" s="23">
-        <v>40</v>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -21403,11 +21699,15 @@
       <c r="F77" s="23">
         <v>200000</v>
       </c>
-      <c r="G77" s="23">
-        <v>52</v>
-      </c>
-      <c r="H77" s="23">
-        <v>57</v>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -21679,11 +21979,15 @@
       <c r="F78" s="23">
         <v>200000</v>
       </c>
-      <c r="G78" s="23">
-        <v>40</v>
-      </c>
-      <c r="H78" s="23">
-        <v>30</v>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -21953,13 +22257,17 @@
         <v>7</v>
       </c>
       <c r="F79" s="23">
-        <v>72000</v>
-      </c>
-      <c r="G79" s="23">
-        <v>53</v>
-      </c>
-      <c r="H79" s="23">
-        <v>40</v>
+        <v>107000</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -22231,11 +22539,15 @@
       <c r="F80" s="23">
         <v>240000</v>
       </c>
-      <c r="G80" s="23">
-        <v>50</v>
-      </c>
-      <c r="H80" s="23">
-        <v>35</v>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -22507,11 +22819,15 @@
       <c r="F81" s="23">
         <v>168000</v>
       </c>
-      <c r="G81" s="23">
-        <v>45</v>
-      </c>
-      <c r="H81" s="23">
-        <v>35</v>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -22783,11 +23099,15 @@
       <c r="F82" s="23">
         <v>144000</v>
       </c>
-      <c r="G82" s="23">
-        <v>42</v>
-      </c>
-      <c r="H82" s="23">
-        <v>33</v>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -23059,11 +23379,15 @@
       <c r="F83" s="23">
         <v>120000</v>
       </c>
-      <c r="G83" s="23">
-        <v>40</v>
-      </c>
-      <c r="H83" s="23">
-        <v>30</v>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -23335,11 +23659,15 @@
       <c r="F84" s="23">
         <v>480000</v>
       </c>
-      <c r="G84" s="23">
-        <v>70</v>
-      </c>
-      <c r="H84" s="23">
-        <v>55</v>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -23609,13 +23937,17 @@
         <v>5</v>
       </c>
       <c r="F85" s="23">
-        <v>72000</v>
-      </c>
-      <c r="G85" s="23">
-        <v>56</v>
-      </c>
-      <c r="H85" s="23">
-        <v>45</v>
+        <v>107000</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -23887,11 +24219,15 @@
       <c r="F86" s="23">
         <v>240000</v>
       </c>
-      <c r="G86" s="23">
-        <v>64</v>
-      </c>
-      <c r="H86" s="23">
-        <v>56</v>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -24163,11 +24499,15 @@
       <c r="F87" s="23">
         <v>168000</v>
       </c>
-      <c r="G87" s="23">
-        <v>46</v>
-      </c>
-      <c r="H87" s="23">
-        <v>30</v>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -24439,11 +24779,15 @@
       <c r="F88" s="23">
         <v>144000</v>
       </c>
-      <c r="G88" s="23">
-        <v>53</v>
-      </c>
-      <c r="H88" s="23">
-        <v>40</v>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -24715,11 +25059,15 @@
       <c r="F89" s="23">
         <v>120000</v>
       </c>
-      <c r="G89" s="23">
-        <v>50</v>
-      </c>
-      <c r="H89" s="23">
-        <v>35</v>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -24991,11 +25339,15 @@
       <c r="F90" s="23">
         <v>480000</v>
       </c>
-      <c r="G90" s="23">
-        <v>45</v>
-      </c>
-      <c r="H90" s="23">
-        <v>35</v>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -25267,11 +25619,15 @@
       <c r="F91" s="23">
         <v>120000</v>
       </c>
-      <c r="G91" s="23">
-        <v>42</v>
-      </c>
-      <c r="H91" s="23">
-        <v>33</v>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -25543,11 +25899,15 @@
       <c r="F92" s="23">
         <v>300000</v>
       </c>
-      <c r="G92" s="23">
-        <v>40</v>
-      </c>
-      <c r="H92" s="23">
-        <v>30</v>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -25819,11 +26179,15 @@
       <c r="F93" s="23">
         <v>168000</v>
       </c>
-      <c r="G93" s="23">
-        <v>70</v>
-      </c>
-      <c r="H93" s="23">
-        <v>55</v>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -26095,11 +26459,15 @@
       <c r="F94" s="23">
         <v>144000</v>
       </c>
-      <c r="G94" s="23">
-        <v>56</v>
-      </c>
-      <c r="H94" s="23">
-        <v>45</v>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -26371,11 +26739,15 @@
       <c r="F95" s="23">
         <v>120000</v>
       </c>
-      <c r="G95" s="23">
-        <v>64</v>
-      </c>
-      <c r="H95" s="23">
-        <v>56</v>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -26647,11 +27019,15 @@
       <c r="F96" s="23">
         <v>480000</v>
       </c>
-      <c r="G96" s="23">
-        <v>46</v>
-      </c>
-      <c r="H96" s="23">
-        <v>30</v>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -26921,13 +27297,17 @@
         <v>6</v>
       </c>
       <c r="F97" s="23">
-        <v>72000</v>
-      </c>
-      <c r="G97" s="23">
-        <v>50</v>
-      </c>
-      <c r="H97" s="23">
-        <v>45</v>
+        <v>107000</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -27199,11 +27579,15 @@
       <c r="F98" s="23">
         <v>240000</v>
       </c>
-      <c r="G98" s="23">
-        <v>42</v>
-      </c>
-      <c r="H98" s="23">
-        <v>33</v>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -27475,11 +27859,15 @@
       <c r="F99" s="23">
         <v>168000</v>
       </c>
-      <c r="G99" s="23">
-        <v>40</v>
-      </c>
-      <c r="H99" s="23">
-        <v>30</v>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -27751,11 +28139,15 @@
       <c r="F100" s="23">
         <v>144000</v>
       </c>
-      <c r="G100" s="23">
-        <v>70</v>
-      </c>
-      <c r="H100" s="23">
-        <v>55</v>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -28027,11 +28419,15 @@
       <c r="F101" s="23">
         <v>120000</v>
       </c>
-      <c r="G101" s="23">
-        <v>56</v>
-      </c>
-      <c r="H101" s="23">
-        <v>45</v>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -28303,11 +28699,15 @@
       <c r="F102" s="23">
         <v>480000</v>
       </c>
-      <c r="G102" s="23">
-        <v>50</v>
-      </c>
-      <c r="H102" s="23">
-        <v>45</v>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -28579,11 +28979,15 @@
       <c r="F103" s="23">
         <v>600000</v>
       </c>
-      <c r="G103" s="23">
-        <v>53</v>
-      </c>
-      <c r="H103" s="23">
-        <v>45</v>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -28855,11 +29259,15 @@
       <c r="F104" s="23">
         <v>600000</v>
       </c>
-      <c r="G104" s="23">
-        <v>53</v>
-      </c>
-      <c r="H104" s="23">
-        <v>45</v>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -29131,11 +29539,15 @@
       <c r="F105" s="23">
         <v>180000</v>
       </c>
-      <c r="G105" s="23">
-        <v>65</v>
-      </c>
-      <c r="H105" s="23">
-        <v>42</v>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -29407,11 +29819,15 @@
       <c r="F106" s="23">
         <v>120000</v>
       </c>
-      <c r="G106" s="23">
-        <v>45</v>
-      </c>
-      <c r="H106" s="23">
-        <v>42</v>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -29683,11 +30099,15 @@
       <c r="F107" s="23">
         <v>480000</v>
       </c>
-      <c r="G107" s="23">
-        <v>55</v>
-      </c>
-      <c r="H107" s="23">
-        <v>45</v>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -29959,11 +30379,15 @@
       <c r="F108" s="23">
         <v>144000</v>
       </c>
-      <c r="G108" s="23">
-        <v>40</v>
-      </c>
-      <c r="H108" s="23">
-        <v>33</v>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -30235,11 +30659,15 @@
       <c r="F109" s="23">
         <v>120000</v>
       </c>
-      <c r="G109" s="23">
-        <v>45</v>
-      </c>
-      <c r="H109" s="23">
-        <v>40</v>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -30509,13 +30937,17 @@
         <v>4</v>
       </c>
       <c r="F110" s="23">
-        <v>84000</v>
-      </c>
-      <c r="G110" s="23">
-        <v>65</v>
-      </c>
-      <c r="H110" s="23">
-        <v>46</v>
+        <v>115000</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Seniors</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -30787,11 +31219,15 @@
       <c r="F111" s="23">
         <v>120000</v>
       </c>
-      <c r="G111" s="23">
-        <v>55</v>
-      </c>
-      <c r="H111" s="23">
-        <v>46</v>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -31063,11 +31499,15 @@
       <c r="F112" s="23">
         <v>144000</v>
       </c>
-      <c r="G112" s="23">
-        <v>60</v>
-      </c>
-      <c r="H112" s="23">
-        <v>52</v>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -31339,11 +31779,15 @@
       <c r="F113" s="23">
         <v>96000</v>
       </c>
-      <c r="G113" s="23">
-        <v>45</v>
-      </c>
-      <c r="H113" s="23">
-        <v>36</v>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -31615,11 +32059,15 @@
       <c r="F114" s="23">
         <v>180000</v>
       </c>
-      <c r="G114" s="23">
-        <v>64</v>
-      </c>
-      <c r="H114" s="23">
-        <v>60</v>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -31889,13 +32337,17 @@
         <v>4</v>
       </c>
       <c r="F115" s="23">
-        <v>60000</v>
-      </c>
-      <c r="G115" s="23">
-        <v>0</v>
-      </c>
-      <c r="H115" s="23">
-        <v>36</v>
+        <v>95000</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Dead</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -32167,11 +32619,15 @@
       <c r="F116" s="23">
         <v>960000</v>
       </c>
-      <c r="G116" s="23">
-        <v>55</v>
-      </c>
-      <c r="H116" s="23">
-        <v>37</v>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -32441,13 +32897,17 @@
         <v>5</v>
       </c>
       <c r="F117" s="23">
-        <v>60000</v>
-      </c>
-      <c r="G117" s="23">
-        <v>30</v>
-      </c>
-      <c r="H117" s="23">
-        <v>25</v>
+        <v>95000</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -32719,11 +33179,15 @@
       <c r="F118" s="23">
         <v>360000</v>
       </c>
-      <c r="G118" s="23">
-        <v>55</v>
-      </c>
-      <c r="H118" s="23">
-        <v>40</v>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -32995,11 +33459,15 @@
       <c r="F119" s="23">
         <v>120000</v>
       </c>
-      <c r="G119" s="23">
-        <v>45</v>
-      </c>
-      <c r="H119" s="23">
-        <v>40</v>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -33271,11 +33739,15 @@
       <c r="F120" s="23">
         <v>480000</v>
       </c>
-      <c r="G120" s="23">
-        <v>59</v>
-      </c>
-      <c r="H120" s="23">
-        <v>47</v>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -33547,11 +34019,15 @@
       <c r="F121" s="23">
         <v>400000</v>
       </c>
-      <c r="G121" s="23">
-        <v>50</v>
-      </c>
-      <c r="H121" s="23">
-        <v>45</v>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -33823,11 +34299,15 @@
       <c r="F122" s="23">
         <v>96000</v>
       </c>
-      <c r="G122" s="23">
-        <v>55</v>
-      </c>
-      <c r="H122" s="23">
-        <v>50</v>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -34097,13 +34577,17 @@
         <v>4</v>
       </c>
       <c r="F123" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G123" s="23">
-        <v>50</v>
-      </c>
-      <c r="H123" s="23">
-        <v>35</v>
+        <v>115000</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -34375,11 +34859,15 @@
       <c r="F124" s="23">
         <v>700000</v>
       </c>
-      <c r="G124" s="23">
-        <v>55</v>
-      </c>
-      <c r="H124" s="23">
-        <v>45</v>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -34649,13 +35137,17 @@
         <v>4</v>
       </c>
       <c r="F125" s="23">
-        <v>72000</v>
-      </c>
-      <c r="G125" s="23">
-        <v>55</v>
-      </c>
-      <c r="H125" s="23">
-        <v>40</v>
+        <v>107000</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -34927,11 +35419,15 @@
       <c r="F126" s="23">
         <v>480000</v>
       </c>
-      <c r="G126" s="23">
-        <v>50</v>
-      </c>
-      <c r="H126" s="23">
-        <v>40</v>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -35201,13 +35697,17 @@
         <v>4</v>
       </c>
       <c r="F127" s="23">
-        <v>75000</v>
-      </c>
-      <c r="G127" s="23">
-        <v>40</v>
-      </c>
-      <c r="H127" s="23">
-        <v>35</v>
+        <v>110000</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -35477,13 +35977,17 @@
         <v>4</v>
       </c>
       <c r="F128" s="23">
-        <v>70000</v>
-      </c>
-      <c r="G128" s="23">
-        <v>42</v>
-      </c>
-      <c r="H128" s="23">
-        <v>36</v>
+        <v>105000</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -35751,13 +36255,17 @@
         <v>4</v>
       </c>
       <c r="F129" s="23">
-        <v>65000</v>
-      </c>
-      <c r="G129" s="23">
-        <v>45</v>
-      </c>
-      <c r="H129" s="23">
-        <v>40</v>
+        <v>100000</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -36025,13 +36533,17 @@
         <v>3</v>
       </c>
       <c r="F130" s="23">
-        <v>70000</v>
-      </c>
-      <c r="G130" s="23">
-        <v>47</v>
-      </c>
-      <c r="H130" s="23">
-        <v>42</v>
+        <v>105000</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -36303,11 +36815,15 @@
       <c r="F131" s="23">
         <v>700000</v>
       </c>
-      <c r="G131" s="23">
-        <v>53</v>
-      </c>
-      <c r="H131" s="23">
-        <v>39</v>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -36579,11 +37095,15 @@
       <c r="F132" s="23">
         <v>360000</v>
       </c>
-      <c r="G132" s="23">
-        <v>47</v>
-      </c>
-      <c r="H132" s="23">
-        <v>40</v>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -36855,11 +37375,15 @@
       <c r="F133" s="23">
         <v>300000</v>
       </c>
-      <c r="G133" s="23">
-        <v>44</v>
-      </c>
-      <c r="H133" s="23">
-        <v>35</v>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -37131,11 +37655,15 @@
       <c r="F134" s="23">
         <v>300000</v>
       </c>
-      <c r="G134" s="23">
-        <v>47</v>
-      </c>
-      <c r="H134" s="23">
-        <v>36</v>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -37407,11 +37935,15 @@
       <c r="F135" s="23">
         <v>450000</v>
       </c>
-      <c r="G135" s="23">
-        <v>48</v>
-      </c>
-      <c r="H135" s="23">
-        <v>36</v>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -37683,11 +38215,15 @@
       <c r="F136" s="23">
         <v>400000</v>
       </c>
-      <c r="G136" s="23">
-        <v>47</v>
-      </c>
-      <c r="H136" s="23">
-        <v>39</v>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -37959,11 +38495,15 @@
       <c r="F137" s="23">
         <v>90000</v>
       </c>
-      <c r="G137" s="23">
-        <v>35</v>
-      </c>
-      <c r="H137" s="23">
-        <v>30</v>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -38233,13 +38773,17 @@
         <v>7</v>
       </c>
       <c r="F138" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G138" s="23">
-        <v>45</v>
-      </c>
-      <c r="H138" s="23">
-        <v>35</v>
+        <v>115000</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -38511,11 +39055,15 @@
       <c r="F139" s="23">
         <v>120000</v>
       </c>
-      <c r="G139" s="23">
-        <v>63</v>
-      </c>
-      <c r="H139" s="23">
-        <v>55</v>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -38787,11 +39335,15 @@
       <c r="F140" s="23">
         <v>90000</v>
       </c>
-      <c r="G140" s="23">
-        <v>40</v>
-      </c>
-      <c r="H140" s="23">
-        <v>30</v>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -39061,13 +39613,15 @@
         <v>8</v>
       </c>
       <c r="F141" s="23">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="G141" s="1" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="H141" s="23">
-        <v>45</v>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -39337,13 +39891,17 @@
         <v>6</v>
       </c>
       <c r="F142" s="23">
-        <v>40000</v>
-      </c>
-      <c r="G142" s="23">
-        <v>55</v>
-      </c>
-      <c r="H142" s="23">
-        <v>50</v>
+        <v>84000</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -39613,13 +40171,15 @@
         <v>2</v>
       </c>
       <c r="F143" s="23">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="G143" s="1" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="H143" s="23">
-        <v>30</v>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -39889,13 +40449,17 @@
         <v>5</v>
       </c>
       <c r="F144" s="23">
-        <v>90000</v>
-      </c>
-      <c r="G144" s="23">
-        <v>50</v>
-      </c>
-      <c r="H144" s="23">
-        <v>35</v>
+        <v>150000</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -40167,11 +40731,15 @@
       <c r="F145" s="23">
         <v>100000</v>
       </c>
-      <c r="G145" s="23">
-        <v>40</v>
-      </c>
-      <c r="H145" s="23">
-        <v>30</v>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -40443,11 +41011,15 @@
       <c r="F146" s="23">
         <v>200000</v>
       </c>
-      <c r="G146" s="23">
-        <v>61</v>
-      </c>
-      <c r="H146" s="23">
-        <v>53</v>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -40717,13 +41289,17 @@
         <v>4</v>
       </c>
       <c r="F147" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G147" s="23">
-        <v>45</v>
-      </c>
-      <c r="H147" s="23">
-        <v>30</v>
+        <v>115000</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -40993,13 +41569,17 @@
         <v>5</v>
       </c>
       <c r="F148" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G148" s="23">
-        <v>38</v>
-      </c>
-      <c r="H148" s="23">
-        <v>28</v>
+        <v>115000</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -41271,11 +41851,15 @@
       <c r="F149" s="23">
         <v>90000</v>
       </c>
-      <c r="G149" s="23">
-        <v>45</v>
-      </c>
-      <c r="H149" s="23">
-        <v>35</v>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -41545,13 +42129,17 @@
         <v>5</v>
       </c>
       <c r="F150" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G150" s="23">
-        <v>40</v>
-      </c>
-      <c r="H150" s="23">
-        <v>30</v>
+        <v>115000</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -41823,11 +42411,15 @@
       <c r="F151" s="23">
         <v>90000</v>
       </c>
-      <c r="G151" s="23">
-        <v>45</v>
-      </c>
-      <c r="H151" s="23">
-        <v>35</v>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -42099,11 +42691,15 @@
       <c r="F152" s="23">
         <v>90000</v>
       </c>
-      <c r="G152" s="23">
-        <v>45</v>
-      </c>
-      <c r="H152" s="23">
-        <v>30</v>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -42375,11 +42971,15 @@
       <c r="F153" s="23">
         <v>200000</v>
       </c>
-      <c r="G153" s="23">
-        <v>60</v>
-      </c>
-      <c r="H153" s="23">
-        <v>50</v>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -42649,13 +43249,15 @@
         <v>3</v>
       </c>
       <c r="F154" s="23">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="G154" s="1" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="H154" s="23">
-        <v>35</v>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -42930,8 +43532,10 @@
       <c r="G155" s="1" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="H155" s="23">
-        <v>57</v>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -43203,11 +43807,15 @@
       <c r="F156" s="23">
         <v>100000</v>
       </c>
-      <c r="G156" s="23">
-        <v>45</v>
-      </c>
-      <c r="H156" s="23">
-        <v>40</v>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -43479,11 +44087,15 @@
       <c r="F157" s="23">
         <v>120000</v>
       </c>
-      <c r="G157" s="23">
-        <v>62</v>
-      </c>
-      <c r="H157" s="23">
-        <v>56</v>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -43755,11 +44367,15 @@
       <c r="F158" s="23">
         <v>100000</v>
       </c>
-      <c r="G158" s="23">
-        <v>40</v>
-      </c>
-      <c r="H158" s="23">
-        <v>40</v>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -44031,11 +44647,15 @@
       <c r="F159" s="23">
         <v>150000</v>
       </c>
-      <c r="G159" s="23">
-        <v>62</v>
-      </c>
-      <c r="H159" s="23">
-        <v>57</v>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -44307,11 +44927,15 @@
       <c r="F160" s="23">
         <v>150000</v>
       </c>
-      <c r="G160" s="23">
-        <v>60</v>
-      </c>
-      <c r="H160" s="23">
-        <v>55</v>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -44586,8 +45210,10 @@
       <c r="G161" s="1" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="H161" s="23">
-        <v>53</v>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -44859,11 +45485,15 @@
       <c r="F162" s="23">
         <v>150000</v>
       </c>
-      <c r="G162" s="23">
-        <v>52</v>
-      </c>
-      <c r="H162" s="23">
-        <v>45</v>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -45135,11 +45765,15 @@
       <c r="F163" s="23">
         <v>100000</v>
       </c>
-      <c r="G163" s="23">
-        <v>40</v>
-      </c>
-      <c r="H163" s="23">
-        <v>30</v>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -45409,13 +46043,15 @@
         <v>6</v>
       </c>
       <c r="F164" s="23">
-        <v>80000</v>
+        <v>115000</v>
       </c>
       <c r="G164" s="1" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="H164" s="23">
-        <v>35</v>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -45685,13 +46321,15 @@
         <v>5</v>
       </c>
       <c r="F165" s="23">
-        <v>70000</v>
+        <v>105000</v>
       </c>
       <c r="G165" s="1" t="e">
         <v>#NULL!</v>
       </c>
-      <c r="H165" s="23">
-        <v>35</v>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -45963,11 +46601,15 @@
       <c r="F166" s="23">
         <v>90000</v>
       </c>
-      <c r="G166" s="23">
-        <v>40</v>
-      </c>
-      <c r="H166" s="23">
-        <v>29</v>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -46237,13 +46879,17 @@
         <v>7</v>
       </c>
       <c r="F167" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G167" s="23">
-        <v>40</v>
-      </c>
-      <c r="H167" s="23">
-        <v>30</v>
+        <v>115000</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -46513,13 +47159,17 @@
         <v>7</v>
       </c>
       <c r="F168" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G168" s="23">
-        <v>40</v>
-      </c>
-      <c r="H168" s="23">
-        <v>30</v>
+        <v>115000</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -46789,13 +47439,17 @@
         <v>7</v>
       </c>
       <c r="F169" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G169" s="23">
-        <v>40</v>
-      </c>
-      <c r="H169" s="23">
-        <v>30</v>
+        <v>115000</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -47067,11 +47721,15 @@
       <c r="F170" s="23">
         <v>90000</v>
       </c>
-      <c r="G170" s="23">
-        <v>45</v>
-      </c>
-      <c r="H170" s="23">
-        <v>35</v>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -47343,11 +48001,15 @@
       <c r="F171" s="23">
         <v>90000</v>
       </c>
-      <c r="G171" s="23">
-        <v>45</v>
-      </c>
-      <c r="H171" s="23">
-        <v>30</v>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -47617,13 +48279,17 @@
         <v>7</v>
       </c>
       <c r="F172" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G172" s="23">
-        <v>47</v>
-      </c>
-      <c r="H172" s="23">
-        <v>35</v>
+        <v>115000</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -47893,13 +48559,17 @@
         <v>5</v>
       </c>
       <c r="F173" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G173" s="23">
-        <v>35</v>
-      </c>
-      <c r="H173" s="23">
-        <v>27</v>
+        <v>115000</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -48169,13 +48839,17 @@
         <v>5</v>
       </c>
       <c r="F174" s="23">
-        <v>80000</v>
-      </c>
-      <c r="G174" s="23">
-        <v>40</v>
-      </c>
-      <c r="H174" s="23">
-        <v>30</v>
+        <v>115000</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -48445,13 +49119,17 @@
         <v>6</v>
       </c>
       <c r="F175" s="23">
-        <v>70000</v>
-      </c>
-      <c r="G175" s="23">
-        <v>48</v>
-      </c>
-      <c r="H175" s="23">
-        <v>35</v>
+        <v>105000</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -48723,11 +49401,15 @@
       <c r="F176" s="23">
         <v>200000</v>
       </c>
-      <c r="G176" s="23">
-        <v>56</v>
-      </c>
-      <c r="H176" s="23">
-        <v>40</v>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -48999,11 +49681,15 @@
       <c r="F177" s="23">
         <v>200000</v>
       </c>
-      <c r="G177" s="23">
-        <v>48</v>
-      </c>
-      <c r="H177" s="23">
-        <v>39</v>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -49275,11 +49961,15 @@
       <c r="F178" s="23">
         <v>210000</v>
       </c>
-      <c r="G178" s="23">
-        <v>54</v>
-      </c>
-      <c r="H178" s="23">
-        <v>40</v>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -49551,11 +50241,15 @@
       <c r="F179" s="23">
         <v>200000</v>
       </c>
-      <c r="G179" s="23">
-        <v>54</v>
-      </c>
-      <c r="H179" s="23">
-        <v>42</v>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -49827,11 +50521,15 @@
       <c r="F180" s="23">
         <v>210000</v>
       </c>
-      <c r="G180" s="23">
-        <v>49</v>
-      </c>
-      <c r="H180" s="23">
-        <v>42</v>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -36034,8 +36034,10 @@
           <t>Housewife</t>
         </is>
       </c>
-      <c r="R128" s="23">
-        <v>22</v>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -36312,8 +36314,10 @@
           <t>Housewife</t>
         </is>
       </c>
-      <c r="R129" s="23">
-        <v>22</v>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="S129" t="inlineStr">
         <is>
